--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:21:11+00:00</t>
+    <t>2024-10-10T16:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:26:55+00:00</t>
+    <t>2024-10-10T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:40:38+00:00</t>
+    <t>2024-10-11T14:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:20:05+00:00</t>
+    <t>2024-10-31T12:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:52:49+00:00</t>
+    <t>2024-11-05T10:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:01:35+00:00</t>
+    <t>2024-11-08T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:53:16+00:00</t>
+    <t>2024-11-08T17:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:02:00+00:00</t>
+    <t>2024-11-08T17:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:33:21+00:00</t>
+    <t>2024-11-13T21:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2209,8 +2209,8 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:$this.resolve()}
-</t>
+    <t>pattern:system}
+exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -3012,7 +3012,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="89.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:35:06+00:00</t>
+    <t>2024-11-14T08:22:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:22:05+00:00</t>
+    <t>2024-11-18T16:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:15:50+00:00</t>
+    <t>2024-12-02T14:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="858">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:05:36+00:00</t>
+    <t>2025-01-15T07:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -955,6 +955,9 @@
   </si>
   <si>
     <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la caducité de l'autorisation sanitaire.</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.dateAutorisation</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -1300,6 +1303,9 @@
     <t>Identifiant SIRET (14 chiffres)</t>
   </si>
   <si>
+    <t>EntiteGeographique.numSiret</t>
+  </si>
+  <si>
     <t>Organization.identifier:siret.id</t>
   </si>
   <si>
@@ -1594,6 +1600,12 @@
     <t>Identifiant ADELI rang (9 chiffres ADELI + 2 chiffres RANG)</t>
   </si>
   <si>
+    <t>EntiteGeographique.identifiantEJ</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.identifiantEG</t>
+  </si>
+  <si>
     <t>Organization.identifier:adeliRang.id</t>
   </si>
   <si>
@@ -1879,6 +1891,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS</t>
   </si>
   <si>
+    <t>EntiteGeographique.secteurActivite</t>
+  </si>
+  <si>
     <t>Organization.type:secteurActiviteRASS.id</t>
   </si>
   <si>
@@ -1937,6 +1952,9 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.categorieEtablissement</t>
   </si>
   <si>
     <t>Organization.type:categorieEtablissementRASS.id</t>
@@ -2033,6 +2051,9 @@
     <t>EntiteJuridique.statutJuridique</t>
   </si>
   <si>
+    <t>EntiteGeographique.statutJuridique</t>
+  </si>
+  <si>
     <t>Organization.type:statutJuridiqueINSEE.id</t>
   </si>
   <si>
@@ -2072,6 +2093,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J162-ESPIC-RASS/FHIR/JDV-J162-ESPIC-RASS</t>
   </si>
   <si>
+    <t>EntiteGeographique.modaliteParticipationSPH</t>
+  </si>
+  <si>
     <t>Organization.type:sphParticipation.id</t>
   </si>
   <si>
@@ -2109,6 +2133,9 @@
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/as-vs-type-etablissement</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.typeEtablissement</t>
   </si>
   <si>
     <t>Organization.type:typeEtablissement.id</t>
@@ -2209,7 +2236,7 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t>pattern:system}
+    <t>value:system}
 exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
@@ -2392,9 +2419,6 @@
     <t>EntiteJuridique.boiteLettreMSS</t>
   </si>
   <si>
-    <t>EntiteGeographique.boiteLettreMSS</t>
-  </si>
-  <si>
     <t>Organization.address</t>
   </si>
   <si>
@@ -2447,6 +2471,9 @@
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.EntiteJuridique</t>
   </si>
   <si>
     <t>.playedBy[classCode=Part].scoper</t>
@@ -3021,7 +3048,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="39.41015625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.02734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.2578125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="45.6171875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="218.1953125" customWidth="true" bestFit="true"/>
@@ -7449,7 +7476,7 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -7466,10 +7493,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7495,16 +7522,16 @@
         <v>112</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -7553,7 +7580,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7588,10 +7615,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7614,17 +7641,17 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -7661,10 +7688,10 @@
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>79</v>
@@ -7673,7 +7700,7 @@
         <v>118</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7682,7 +7709,7 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>103</v>
@@ -7694,27 +7721,27 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>79</v>
@@ -7736,17 +7763,17 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7795,7 +7822,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7804,36 +7831,36 @@
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7948,10 +7975,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -8068,10 +8095,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -8097,16 +8124,16 @@
         <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -8116,7 +8143,7 @@
         <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>79</v>
@@ -8131,13 +8158,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -8155,7 +8182,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -8179,7 +8206,7 @@
         <v>203</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -8190,10 +8217,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8216,19 +8243,19 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -8238,7 +8265,7 @@
         <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>79</v>
@@ -8256,10 +8283,10 @@
         <v>162</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -8277,7 +8304,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -8298,10 +8325,10 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -8312,10 +8339,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8341,16 +8368,16 @@
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -8360,10 +8387,10 @@
         <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>79</v>
@@ -8399,7 +8426,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -8420,13 +8447,13 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -8434,10 +8461,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8463,13 +8490,13 @@
         <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8483,7 +8510,7 @@
         <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>79</v>
@@ -8519,7 +8546,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8540,13 +8567,13 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -8554,10 +8581,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8583,10 +8610,10 @@
         <v>234</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8637,7 +8664,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8658,13 +8685,13 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>79</v>
@@ -8672,10 +8699,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8698,16 +8725,16 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8757,7 +8784,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8778,13 +8805,13 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -8792,13 +8819,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>79</v>
@@ -8820,17 +8847,17 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8879,7 +8906,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8888,36 +8915,36 @@
         <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9032,10 +9059,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9152,10 +9179,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9181,16 +9208,16 @@
         <v>180</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -9215,13 +9242,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -9239,7 +9266,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -9263,7 +9290,7 @@
         <v>203</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -9274,10 +9301,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9300,19 +9327,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -9322,7 +9349,7 @@
         <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>79</v>
@@ -9340,10 +9367,10 @@
         <v>162</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -9361,7 +9388,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9382,10 +9409,10 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -9396,10 +9423,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9425,16 +9452,16 @@
         <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -9444,10 +9471,10 @@
         <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -9483,7 +9510,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9504,13 +9531,13 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -9518,10 +9545,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9547,13 +9574,13 @@
         <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9567,7 +9594,7 @@
         <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9630,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9624,13 +9651,13 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -9638,10 +9665,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9667,10 +9694,10 @@
         <v>234</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9721,7 +9748,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9742,13 +9769,13 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -9756,10 +9783,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9782,16 +9809,16 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9841,7 +9868,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9862,13 +9889,13 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -9876,13 +9903,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>79</v>
@@ -9904,17 +9931,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9963,7 +9990,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9972,7 +9999,7 @@
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
@@ -9981,27 +10008,27 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10116,10 +10143,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10236,10 +10263,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10265,16 +10292,16 @@
         <v>180</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -10299,13 +10326,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -10323,7 +10350,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10347,7 +10374,7 @@
         <v>203</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -10358,10 +10385,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10384,19 +10411,19 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -10406,7 +10433,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
@@ -10424,10 +10451,10 @@
         <v>162</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -10445,7 +10472,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10466,10 +10493,10 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -10480,10 +10507,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10509,16 +10536,16 @@
         <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -10528,10 +10555,10 @@
         <v>79</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>79</v>
@@ -10567,7 +10594,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10588,13 +10615,13 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>79</v>
@@ -10602,10 +10629,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10631,13 +10658,13 @@
         <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10651,7 +10678,7 @@
         <v>79</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>79</v>
@@ -10687,7 +10714,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10708,13 +10735,13 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -10722,10 +10749,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10751,10 +10778,10 @@
         <v>234</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10805,7 +10832,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10826,13 +10853,13 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>79</v>
@@ -10840,10 +10867,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10866,16 +10893,16 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10925,7 +10952,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10946,13 +10973,13 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>79</v>
@@ -10960,13 +10987,13 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>79</v>
@@ -10988,17 +11015,17 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -11047,7 +11074,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -11056,36 +11083,36 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11200,10 +11227,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11320,10 +11347,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11349,16 +11376,16 @@
         <v>180</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -11383,13 +11410,13 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -11407,7 +11434,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -11431,7 +11458,7 @@
         <v>203</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -11442,10 +11469,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11468,19 +11495,19 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -11508,10 +11535,10 @@
         <v>162</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -11529,7 +11556,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11550,10 +11577,10 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -11564,10 +11591,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11682,10 +11709,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11802,10 +11829,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11831,16 +11858,16 @@
         <v>158</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11889,7 +11916,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11910,10 +11937,10 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11924,10 +11951,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12042,10 +12069,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12162,10 +12189,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12191,16 +12218,16 @@
         <v>138</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -12210,7 +12237,7 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -12249,7 +12276,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -12270,10 +12297,10 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -12284,10 +12311,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12313,13 +12340,13 @@
         <v>105</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12369,7 +12396,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -12390,10 +12417,10 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -12404,10 +12431,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12433,14 +12460,14 @@
         <v>180</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -12489,7 +12516,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12510,10 +12537,10 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -12524,10 +12551,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12553,14 +12580,14 @@
         <v>105</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -12609,7 +12636,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12630,10 +12657,10 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -12644,10 +12671,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12670,19 +12697,19 @@
         <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -12731,7 +12758,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12752,10 +12779,10 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -12766,10 +12793,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12795,16 +12822,16 @@
         <v>105</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -12853,7 +12880,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12874,10 +12901,10 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -12888,10 +12915,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12917,16 +12944,16 @@
         <v>138</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12936,10 +12963,10 @@
         <v>79</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>79</v>
@@ -12975,7 +13002,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12996,13 +13023,13 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>79</v>
@@ -13010,10 +13037,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13039,13 +13066,13 @@
         <v>105</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -13059,7 +13086,7 @@
         <v>79</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>79</v>
@@ -13095,7 +13122,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -13116,13 +13143,13 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -13130,10 +13157,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13159,10 +13186,10 @@
         <v>234</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -13213,7 +13240,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -13234,13 +13261,13 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>79</v>
@@ -13248,10 +13275,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13274,16 +13301,16 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -13333,7 +13360,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13354,13 +13381,13 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>79</v>
@@ -13368,13 +13395,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>79</v>
@@ -13396,17 +13423,17 @@
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -13455,7 +13482,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13464,36 +13491,36 @@
         <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13608,10 +13635,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13728,10 +13755,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13757,16 +13784,16 @@
         <v>180</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -13791,13 +13818,13 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13815,7 +13842,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13839,7 +13866,7 @@
         <v>203</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13850,10 +13877,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13876,19 +13903,19 @@
         <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13898,7 +13925,7 @@
         <v>79</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>79</v>
@@ -13916,10 +13943,10 @@
         <v>162</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>79</v>
@@ -13937,7 +13964,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13958,10 +13985,10 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13972,10 +13999,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14001,16 +14028,16 @@
         <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -14020,10 +14047,10 @@
         <v>79</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>79</v>
@@ -14059,7 +14086,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -14080,13 +14107,13 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>79</v>
@@ -14094,10 +14121,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14123,13 +14150,13 @@
         <v>105</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -14143,7 +14170,7 @@
         <v>79</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>79</v>
@@ -14179,7 +14206,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -14200,13 +14227,13 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>79</v>
@@ -14214,10 +14241,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14243,10 +14270,10 @@
         <v>234</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -14297,7 +14324,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -14318,13 +14345,13 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>79</v>
@@ -14332,10 +14359,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14358,16 +14385,16 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14417,7 +14444,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14438,13 +14465,13 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>79</v>
@@ -14452,13 +14479,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>79</v>
@@ -14480,17 +14507,17 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -14539,7 +14566,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14548,36 +14575,36 @@
         <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14692,10 +14719,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14812,10 +14839,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14841,16 +14868,16 @@
         <v>180</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -14875,13 +14902,13 @@
         <v>79</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>79</v>
@@ -14899,7 +14926,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14923,7 +14950,7 @@
         <v>203</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14934,10 +14961,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14960,19 +14987,19 @@
         <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -14982,7 +15009,7 @@
         <v>79</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>79</v>
@@ -15000,10 +15027,10 @@
         <v>162</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>79</v>
@@ -15021,7 +15048,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -15042,10 +15069,10 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -15056,10 +15083,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15085,16 +15112,16 @@
         <v>138</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -15104,10 +15131,10 @@
         <v>79</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>79</v>
@@ -15143,7 +15170,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -15164,13 +15191,13 @@
         <v>79</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>79</v>
@@ -15178,10 +15205,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15207,13 +15234,13 @@
         <v>105</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -15227,7 +15254,7 @@
         <v>79</v>
       </c>
       <c r="T102" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U102" t="s" s="2">
         <v>79</v>
@@ -15263,7 +15290,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15284,13 +15311,13 @@
         <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>79</v>
@@ -15298,10 +15325,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15327,10 +15354,10 @@
         <v>234</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -15381,7 +15408,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15402,13 +15429,13 @@
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>79</v>
@@ -15416,10 +15443,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15442,16 +15469,16 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15501,7 +15528,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15522,13 +15549,13 @@
         <v>79</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>79</v>
@@ -15536,10 +15563,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15562,70 +15589,70 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="O105" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q105" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF105" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q105" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15643,27 +15670,27 @@
         <v>79</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15686,19 +15713,19 @@
         <v>92</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>79</v>
@@ -15726,16 +15753,16 @@
         <v>170</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15745,7 +15772,7 @@
         <v>118</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15766,27 +15793,27 @@
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>79</v>
@@ -15808,19 +15835,19 @@
         <v>92</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>79</v>
@@ -15845,11 +15872,11 @@
         <v>79</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>79</v>
@@ -15867,7 +15894,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15888,24 +15915,24 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16020,10 +16047,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16138,13 +16165,13 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>79</v>
@@ -16166,13 +16193,13 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -16258,10 +16285,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16376,10 +16403,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16494,10 +16521,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16537,7 +16564,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>79</v>
@@ -16614,10 +16641,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16646,7 +16673,7 @@
         <v>235</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16658,7 +16685,7 @@
         <v>79</v>
       </c>
       <c r="S114" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>79</v>
@@ -16673,11 +16700,11 @@
         <v>79</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>79</v>
@@ -16730,10 +16757,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16759,16 +16786,16 @@
         <v>158</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>79</v>
@@ -16817,7 +16844,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16838,10 +16865,10 @@
         <v>79</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>79</v>
@@ -16852,10 +16879,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16970,10 +16997,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17090,10 +17117,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17119,16 +17146,16 @@
         <v>138</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>79</v>
@@ -17177,7 +17204,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17198,10 +17225,10 @@
         <v>79</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>79</v>
@@ -17212,10 +17239,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17241,13 +17268,13 @@
         <v>105</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -17297,7 +17324,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17318,10 +17345,10 @@
         <v>79</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>79</v>
@@ -17332,10 +17359,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17361,14 +17388,14 @@
         <v>180</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>79</v>
@@ -17417,7 +17444,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17438,10 +17465,10 @@
         <v>79</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>79</v>
@@ -17452,10 +17479,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17481,14 +17508,14 @@
         <v>105</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -17537,7 +17564,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17558,10 +17585,10 @@
         <v>79</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>79</v>
@@ -17572,10 +17599,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17598,19 +17625,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -17659,7 +17686,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17680,10 +17707,10 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>79</v>
@@ -17694,10 +17721,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17723,16 +17750,16 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -17781,7 +17808,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17802,10 +17829,10 @@
         <v>79</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>79</v>
@@ -17816,13 +17843,13 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>79</v>
@@ -17844,19 +17871,19 @@
         <v>92</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -17881,11 +17908,11 @@
         <v>79</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>79</v>
@@ -17903,7 +17930,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17921,27 +17948,27 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18056,10 +18083,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18174,13 +18201,13 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D127" t="s" s="2">
         <v>79</v>
@@ -18202,13 +18229,13 @@
         <v>79</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -18294,10 +18321,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18412,10 +18439,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18530,10 +18557,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18573,7 +18600,7 @@
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>79</v>
@@ -18650,10 +18677,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18682,7 +18709,7 @@
         <v>235</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18694,7 +18721,7 @@
         <v>79</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>79</v>
@@ -18709,11 +18736,11 @@
         <v>79</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y131" s="2"/>
       <c r="Z131" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>79</v>
@@ -18766,10 +18793,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18795,16 +18822,16 @@
         <v>158</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -18853,7 +18880,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18874,10 +18901,10 @@
         <v>79</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>79</v>
@@ -18888,10 +18915,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19006,10 +19033,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19126,10 +19153,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19155,16 +19182,16 @@
         <v>138</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -19213,7 +19240,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19234,10 +19261,10 @@
         <v>79</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>79</v>
@@ -19248,10 +19275,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19277,13 +19304,13 @@
         <v>105</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -19333,7 +19360,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19354,10 +19381,10 @@
         <v>79</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>79</v>
@@ -19368,10 +19395,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19397,14 +19424,14 @@
         <v>180</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>79</v>
@@ -19453,7 +19480,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19474,10 +19501,10 @@
         <v>79</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>79</v>
@@ -19488,10 +19515,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19517,14 +19544,14 @@
         <v>105</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -19573,7 +19600,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19594,10 +19621,10 @@
         <v>79</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>79</v>
@@ -19608,10 +19635,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19634,19 +19661,19 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>79</v>
@@ -19695,7 +19722,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19716,10 +19743,10 @@
         <v>79</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>79</v>
@@ -19730,10 +19757,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19759,16 +19786,16 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>79</v>
@@ -19817,7 +19844,7 @@
         <v>79</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19838,10 +19865,10 @@
         <v>79</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>79</v>
@@ -19852,13 +19879,13 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>79</v>
@@ -19880,19 +19907,19 @@
         <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>79</v>
@@ -19917,11 +19944,11 @@
         <v>79</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y141" s="2"/>
       <c r="Z141" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>79</v>
@@ -19939,7 +19966,7 @@
         <v>79</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19957,27 +19984,27 @@
         <v>79</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>79</v>
+        <v>622</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20092,10 +20119,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20212,10 +20239,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20241,16 +20268,16 @@
         <v>158</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>79</v>
@@ -20299,7 +20326,7 @@
         <v>79</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20320,10 +20347,10 @@
         <v>79</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>79</v>
@@ -20334,10 +20361,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20452,10 +20479,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20572,10 +20599,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20601,16 +20628,16 @@
         <v>138</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>79</v>
@@ -20659,7 +20686,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20680,10 +20707,10 @@
         <v>79</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>79</v>
@@ -20694,10 +20721,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20723,13 +20750,13 @@
         <v>105</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20779,7 +20806,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20800,10 +20827,10 @@
         <v>79</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>79</v>
@@ -20814,10 +20841,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20843,14 +20870,14 @@
         <v>180</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -20899,7 +20926,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20920,10 +20947,10 @@
         <v>79</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>79</v>
@@ -20934,10 +20961,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20963,14 +20990,14 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>79</v>
@@ -21019,7 +21046,7 @@
         <v>79</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21040,10 +21067,10 @@
         <v>79</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>79</v>
@@ -21054,10 +21081,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21080,19 +21107,19 @@
         <v>92</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>79</v>
@@ -21141,7 +21168,7 @@
         <v>79</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21162,10 +21189,10 @@
         <v>79</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>79</v>
@@ -21176,10 +21203,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21205,16 +21232,16 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>79</v>
@@ -21263,7 +21290,7 @@
         <v>79</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21284,10 +21311,10 @@
         <v>79</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>79</v>
@@ -21298,13 +21325,13 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -21326,19 +21353,19 @@
         <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>79</v>
@@ -21363,11 +21390,11 @@
         <v>79</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y153" s="2"/>
       <c r="Z153" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>79</v>
@@ -21385,7 +21412,7 @@
         <v>79</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21400,30 +21427,30 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP153" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21538,10 +21565,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21656,13 +21683,13 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>79</v>
@@ -21684,13 +21711,13 @@
         <v>79</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21776,10 +21803,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21894,10 +21921,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22012,10 +22039,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22055,7 +22082,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>79</v>
@@ -22132,10 +22159,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22164,7 +22191,7 @@
         <v>235</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22176,7 +22203,7 @@
         <v>79</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>79</v>
@@ -22191,11 +22218,11 @@
         <v>79</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y160" s="2"/>
       <c r="Z160" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>79</v>
@@ -22248,10 +22275,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22277,16 +22304,16 @@
         <v>158</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>79</v>
@@ -22335,7 +22362,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22356,10 +22383,10 @@
         <v>79</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>79</v>
@@ -22370,10 +22397,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22399,16 +22426,16 @@
         <v>105</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -22457,7 +22484,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22478,10 +22505,10 @@
         <v>79</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>79</v>
@@ -22492,13 +22519,13 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>79</v>
@@ -22520,19 +22547,19 @@
         <v>92</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -22557,11 +22584,11 @@
         <v>79</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y163" s="2"/>
       <c r="Z163" t="s" s="2">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>79</v>
@@ -22579,7 +22606,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22594,30 +22621,30 @@
         <v>103</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>79</v>
+        <v>654</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP163" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22732,10 +22759,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22850,13 +22877,13 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>79</v>
@@ -22878,13 +22905,13 @@
         <v>79</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22970,10 +22997,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23088,10 +23115,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23206,10 +23233,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23249,7 +23276,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="S169" t="s" s="2">
         <v>79</v>
@@ -23326,10 +23353,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23358,7 +23385,7 @@
         <v>235</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -23370,7 +23397,7 @@
         <v>79</v>
       </c>
       <c r="S170" t="s" s="2">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>79</v>
@@ -23385,11 +23412,11 @@
         <v>79</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y170" s="2"/>
       <c r="Z170" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>79</v>
@@ -23442,10 +23469,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23471,16 +23498,16 @@
         <v>158</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>79</v>
@@ -23529,7 +23556,7 @@
         <v>79</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23550,10 +23577,10 @@
         <v>79</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>79</v>
@@ -23564,10 +23591,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23593,16 +23620,16 @@
         <v>105</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>79</v>
@@ -23651,7 +23678,7 @@
         <v>79</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23672,10 +23699,10 @@
         <v>79</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>79</v>
@@ -23686,13 +23713,13 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>79</v>
@@ -23714,19 +23741,19 @@
         <v>92</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>79</v>
@@ -23751,11 +23778,11 @@
         <v>79</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y173" s="2"/>
       <c r="Z173" t="s" s="2">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>79</v>
@@ -23773,7 +23800,7 @@
         <v>79</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23791,27 +23818,27 @@
         <v>79</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>633</v>
+        <v>668</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP173" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23926,10 +23953,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24044,13 +24071,13 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>79</v>
@@ -24072,13 +24099,13 @@
         <v>79</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -24164,10 +24191,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24282,10 +24309,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24400,10 +24427,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24443,7 +24470,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>79</v>
@@ -24520,10 +24547,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24552,7 +24579,7 @@
         <v>235</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -24564,7 +24591,7 @@
         <v>79</v>
       </c>
       <c r="S180" t="s" s="2">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="T180" t="s" s="2">
         <v>79</v>
@@ -24579,11 +24606,11 @@
         <v>79</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y180" s="2"/>
       <c r="Z180" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>79</v>
@@ -24636,10 +24663,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24665,16 +24692,16 @@
         <v>158</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>79</v>
@@ -24723,7 +24750,7 @@
         <v>79</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24744,10 +24771,10 @@
         <v>79</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>79</v>
@@ -24758,10 +24785,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24787,16 +24814,16 @@
         <v>105</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>79</v>
@@ -24845,7 +24872,7 @@
         <v>79</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24866,10 +24893,10 @@
         <v>79</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>79</v>
@@ -24880,13 +24907,13 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>79</v>
@@ -24908,19 +24935,19 @@
         <v>92</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>79</v>
@@ -24945,11 +24972,11 @@
         <v>79</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y183" s="2"/>
       <c r="Z183" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>79</v>
@@ -24967,7 +24994,7 @@
         <v>79</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24985,27 +25012,27 @@
         <v>79</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>79</v>
+        <v>682</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP183" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25120,10 +25147,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25238,13 +25265,13 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>79</v>
@@ -25266,13 +25293,13 @@
         <v>79</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -25358,10 +25385,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25476,10 +25503,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25594,10 +25621,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25637,7 +25664,7 @@
       </c>
       <c r="Q189" s="2"/>
       <c r="R189" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="S189" t="s" s="2">
         <v>79</v>
@@ -25714,10 +25741,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25746,7 +25773,7 @@
         <v>235</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25758,7 +25785,7 @@
         <v>79</v>
       </c>
       <c r="S190" t="s" s="2">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="T190" t="s" s="2">
         <v>79</v>
@@ -25773,11 +25800,11 @@
         <v>79</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y190" s="2"/>
       <c r="Z190" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AA190" t="s" s="2">
         <v>79</v>
@@ -25830,10 +25857,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25859,16 +25886,16 @@
         <v>158</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>79</v>
@@ -25917,7 +25944,7 @@
         <v>79</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25938,10 +25965,10 @@
         <v>79</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO191" t="s" s="2">
         <v>79</v>
@@ -25952,10 +25979,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25981,16 +26008,16 @@
         <v>105</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>79</v>
@@ -26039,7 +26066,7 @@
         <v>79</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26060,10 +26087,10 @@
         <v>79</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>79</v>
@@ -26074,10 +26101,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26103,16 +26130,16 @@
         <v>105</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>79</v>
@@ -26161,7 +26188,7 @@
         <v>79</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26170,25 +26197,25 @@
         <v>91</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="AP193" t="s" s="2">
         <v>79</v>
@@ -26196,10 +26223,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26225,16 +26252,16 @@
         <v>105</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>79</v>
@@ -26283,7 +26310,7 @@
         <v>79</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26298,16 +26325,16 @@
         <v>103</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>79</v>
@@ -26318,10 +26345,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26344,19 +26371,19 @@
         <v>79</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>79</v>
@@ -26393,7 +26420,7 @@
         <v>79</v>
       </c>
       <c r="AB195" t="s" s="2">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="AC195" s="2"/>
       <c r="AD195" t="s" s="2">
@@ -26403,7 +26430,7 @@
         <v>118</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26415,22 +26442,22 @@
         <v>212</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="AO195" t="s" s="2">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="AP195" t="s" s="2">
         <v>79</v>
@@ -26438,10 +26465,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26556,10 +26583,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26676,13 +26703,13 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>79</v>
@@ -26704,13 +26731,13 @@
         <v>79</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26796,10 +26823,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26825,10 +26852,10 @@
         <v>180</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -26855,13 +26882,13 @@
         <v>79</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>79</v>
@@ -26879,7 +26906,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
@@ -26888,7 +26915,7 @@
         <v>91</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>103</v>
@@ -26900,13 +26927,13 @@
         <v>79</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>79</v>
@@ -26914,10 +26941,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26943,16 +26970,16 @@
         <v>105</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>79</v>
@@ -27001,7 +27028,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -27022,13 +27049,13 @@
         <v>79</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="AO200" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP200" t="s" s="2">
         <v>79</v>
@@ -27036,10 +27063,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27065,16 +27092,16 @@
         <v>180</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>79</v>
@@ -27099,13 +27126,13 @@
         <v>79</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="Z201" t="s" s="2">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="AA201" t="s" s="2">
         <v>79</v>
@@ -27123,7 +27150,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -27144,13 +27171,13 @@
         <v>79</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="AO201" t="s" s="2">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="AP201" t="s" s="2">
         <v>79</v>
@@ -27158,10 +27185,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27184,16 +27211,16 @@
         <v>92</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
@@ -27243,7 +27270,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27278,10 +27305,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27307,10 +27334,10 @@
         <v>234</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27361,7 +27388,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -27385,10 +27412,10 @@
         <v>203</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="AO203" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP203" t="s" s="2">
         <v>79</v>
@@ -27396,13 +27423,13 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>79</v>
@@ -27424,19 +27451,19 @@
         <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -27485,7 +27512,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -27497,22 +27524,22 @@
         <v>212</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="AO204" t="s" s="2">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="AP204" t="s" s="2">
         <v>79</v>
@@ -27520,10 +27547,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27546,19 +27573,19 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27607,7 +27634,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -27619,22 +27646,22 @@
         <v>212</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="AP205" t="s" s="2">
         <v>79</v>
@@ -27642,10 +27669,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27668,17 +27695,17 @@
         <v>92</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>79</v>
@@ -27727,7 +27754,7 @@
         <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -27745,13 +27772,13 @@
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>79</v>
+        <v>791</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>109</v>
@@ -27762,10 +27789,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27880,10 +27907,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28000,10 +28027,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28029,13 +28056,13 @@
         <v>105</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -28085,7 +28112,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28094,7 +28121,7 @@
         <v>91</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>103</v>
@@ -28120,10 +28147,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28149,13 +28176,13 @@
         <v>138</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28185,7 +28212,7 @@
       </c>
       <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>79</v>
@@ -28203,7 +28230,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28238,10 +28265,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28264,16 +28291,16 @@
         <v>92</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28323,7 +28350,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28347,7 +28374,7 @@
         <v>79</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>79</v>
@@ -28358,10 +28385,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28387,13 +28414,13 @@
         <v>105</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
@@ -28443,7 +28470,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28478,10 +28505,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28504,19 +28531,19 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -28565,7 +28592,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -28589,7 +28616,7 @@
         <v>79</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>79</v>
@@ -28600,10 +28627,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28718,10 +28745,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28838,14 +28865,14 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
@@ -28867,16 +28894,16 @@
         <v>112</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="N216" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
@@ -28925,7 +28952,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28960,10 +28987,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28986,17 +29013,17 @@
         <v>79</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -29024,10 +29051,10 @@
         <v>162</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>79</v>
@@ -29045,7 +29072,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29069,7 +29096,7 @@
         <v>79</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29080,10 +29107,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29106,17 +29133,17 @@
         <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29165,7 +29192,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -29186,10 +29213,10 @@
         <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>79</v>
@@ -29200,10 +29227,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29226,17 +29253,17 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>79</v>
@@ -29285,7 +29312,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29297,7 +29324,7 @@
         <v>212</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>79</v>
@@ -29306,13 +29333,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29320,10 +29347,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29346,19 +29373,19 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
@@ -29407,7 +29434,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29428,13 +29455,13 @@
         <v>79</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="AP220" t="s" s="2">
         <v>79</v>
@@ -29442,10 +29469,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29468,17 +29495,17 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>79</v>
@@ -29527,7 +29554,7 @@
         <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T07:47:50+00:00</t>
+    <t>2025-01-27T16:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:40:24+00:00</t>
+    <t>2025-01-27T17:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
